--- a/munkalap.xlsx
+++ b/munkalap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i5PC\Documents\GitHub\V_Tech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i5PC\Documents\GitHub\v__tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13764ABB-2D18-4219-9CC4-A04C0BB87E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB9BB7D-8D03-4B50-BD42-1C5BE271B80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="1830" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Szabó Brigitta</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>Kereső elkezdése</t>
+  </si>
+  <si>
+    <t>CSS oldal elkezdése</t>
+  </si>
+  <si>
+    <t>Navbar elkezdése</t>
+  </si>
+  <si>
+    <t>A nem helyes működés miatt újra kellett kezdeni</t>
   </si>
 </sst>
 </file>
@@ -423,16 +432,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -474,31 +483,34 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>44971</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -506,27 +518,27 @@
         <v>44975</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -534,31 +546,41 @@
         <v>44978</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/munkalap.xlsx
+++ b/munkalap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i5PC\Documents\GitHub\v__tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB9BB7D-8D03-4B50-BD42-1C5BE271B80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B231D760-B3A9-46B4-933A-0FF1C02F9931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Szabó Brigitta</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>A nem helyes működés miatt újra kellett kezdeni</t>
+  </si>
+  <si>
+    <t>PPT készítés(03.07)</t>
   </si>
 </sst>
 </file>
@@ -432,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,6 +587,11 @@
         <v>20</v>
       </c>
     </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
